--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE41601A-8218-BC49-94E1-471230FCD3C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE362C1-F8AC-524E-8E08-54725160D738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
+    <sheet name="Formula Samples" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>Sample Data</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t>&gt; This cell is purposefully filled with wrong answer.</t>
+  </si>
+  <si>
+    <t>&gt; This cell will be considered as wrong because it inputs a constant value, not a formula.</t>
+  </si>
+  <si>
+    <t>&gt; This will be considered as wrong due to incorrect formula.</t>
+  </si>
+  <si>
+    <t>&gt; This cel will be considered as wrong since ROUNDUP is yet to be implemented.</t>
   </si>
 </sst>
 </file>
@@ -426,7 +436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF32E925-6E02-734C-B233-A410012DB67F}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -515,4 +525,103 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f xml:space="preserve"> ROUNDUP(B2 * 0.01, 0)</f>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> B6 * 0.001</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> B6 * 3.28</f>
+        <v>3280</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f>B6*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE362C1-F8AC-524E-8E08-54725160D738}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDF044-0F10-3B4B-908B-8B2493B4015D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
     <sheet name="Formula Samples" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Case Samples" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Sample Data</t>
   </si>
@@ -82,7 +83,19 @@
     <t>&gt; This will be considered as wrong due to incorrect formula.</t>
   </si>
   <si>
-    <t>&gt; This cel will be considered as wrong since ROUNDUP is yet to be implemented.</t>
+    <t>&gt; This cell will be considered as wrong since ROUNDUP is a custom formula, and it multiplies against 0.01 instead of dividing against 100. To compare this properly, use test cases. Or perhaps constant calculation will be enough.</t>
+  </si>
+  <si>
+    <t>&gt; This will be considered as correct due to the delta in the test case.</t>
+  </si>
+  <si>
+    <t>&gt; This will be considered as incorrect due to the different output.</t>
+  </si>
+  <si>
+    <t>Century Rounder</t>
+  </si>
+  <si>
+    <t>&gt; This cell will be considered as correct due to the test runs.</t>
   </si>
 </sst>
 </file>
@@ -531,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -624,4 +637,111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3339B06-2787-1140-B1BC-BB2077245310}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f xml:space="preserve"> ROUNDUP(B2 * 0.01, B4 )</f>
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <f xml:space="preserve"> B7 * 0.001</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <f xml:space="preserve"> B7 * 3.281</f>
+        <v>3281</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <f>B7*39.37</f>
+        <v>39370</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BDF044-0F10-3B4B-908B-8B2493B4015D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77514747-70D0-5F40-B06B-BA07615D3914}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="19440" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>Sample Data</t>
   </si>
@@ -83,9 +83,6 @@
     <t>&gt; This will be considered as wrong due to incorrect formula.</t>
   </si>
   <si>
-    <t>&gt; This cell will be considered as wrong since ROUNDUP is a custom formula, and it multiplies against 0.01 instead of dividing against 100. To compare this properly, use test cases. Or perhaps constant calculation will be enough.</t>
-  </si>
-  <si>
     <t>&gt; This will be considered as correct due to the delta in the test case.</t>
   </si>
   <si>
@@ -96,6 +93,15 @@
   </si>
   <si>
     <t>&gt; This cell will be considered as correct due to the test runs.</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>&gt; This cell will be considered as wrong since ROUNDUP is a custom formula, and it multiplies against 0.01 instead of doing what the key does: dividing against 100. To compare this properly, use test cases. Or perhaps constant calculation will be enough.</t>
+  </si>
+  <si>
+    <t>&gt; This cell will be considered as right, since the key uses SUM - basically expands the cell range and adds all of them. Algebra-wise, it will end up with similar result.</t>
   </si>
 </sst>
 </file>
@@ -542,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +596,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -632,6 +638,18 @@
       </c>
       <c r="C9" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <f>B2+B3+B4</f>
+        <v>2243</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -643,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3339B06-2787-1140-B1BC-BB2077245310}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,7 +700,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -697,7 +715,7 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -726,7 +744,7 @@
         <v>3281</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -738,7 +756,7 @@
         <v>39370</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77514747-70D0-5F40-B06B-BA07615D3914}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB621EC-0C83-1541-B261-67E3DE427C8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="19440" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Sample Data</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>&gt; This cell will be considered as right, since the key uses SUM - basically expands the cell range and adds all of them. Algebra-wise, it will end up with similar result.</t>
+  </si>
+  <si>
+    <t>Sum with extra algebraic calculation</t>
+  </si>
+  <si>
+    <t>&gt; This cell will also be considered as right, since the extra algebraic calculation doesn't happen inside custom function - allowing it to be simplified.</t>
   </si>
 </sst>
 </file>
@@ -548,15 +554,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,6 +656,18 @@
       </c>
       <c r="C11" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <f>B2+B3+B4+4-2</f>
+        <v>2245</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardopramanasuranta/Documents/Projects-CMUSV/Fall-2020/18980-GRA/pysheetgrader/sample_excel_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB621EC-0C83-1541-B261-67E3DE427C8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47679B71-1AB4-6E46-AA73-E112609103F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="480" windowWidth="19200" windowHeight="19440" activeTab="1" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="15060" yWindow="500" windowWidth="19200" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
     <sheet name="Formula Samples" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Case Samples" sheetId="4" r:id="rId3"/>
+    <sheet name="Relative Samples" sheetId="5" r:id="rId3"/>
+    <sheet name="Test Case Samples" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -556,7 +557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54FCC73-D8ED-7C43-AC38-2299ABF8D40E}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
+    <sheetView zoomScale="201" zoomScaleNormal="201" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -676,6 +677,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
+  <dimension ref="A2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>3003</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>4005</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3">
+        <v>2002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3339B06-2787-1140-B1BC-BB2077245310}">
   <dimension ref="A1:C10"/>
   <sheetViews>

--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47679B71-1AB4-6E46-AA73-E112609103F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B7E86-B99D-5F4D-8E43-AB2F797C0BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="500" windowWidth="19200" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Sample Data</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>&gt; This cell will also be considered as right, since the extra algebraic calculation doesn't happen inside custom function - allowing it to be simplified.</t>
+  </si>
+  <si>
+    <t>not_ok</t>
   </si>
 </sst>
 </file>
@@ -678,15 +681,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3003</v>
       </c>
@@ -697,7 +700,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4005</v>
       </c>
@@ -706,6 +709,20 @@
       </c>
       <c r="C3">
         <v>2002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530B7E86-B99D-5F4D-8E43-AB2F797C0BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DE592-BA93-9541-BC45-C619E73EDD23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19200" yWindow="500" windowWidth="19200" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
+    <workbookView xWindow="-17680" yWindow="500" windowWidth="17680" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
@@ -684,7 +684,7 @@
   <dimension ref="A2:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -709,6 +709,28 @@
       </c>
       <c r="C3">
         <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3005</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8888</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">

--- a/sample_excel_files/MasterGallerySubmission.xlsx
+++ b/sample_excel_files/MasterGallerySubmission.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanfa/workspace/pysheetgrader/sample_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944DE592-BA93-9541-BC45-C619E73EDD23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8225BBAB-8E52-D74B-88D5-70CEF550CD6C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17680" yWindow="500" windowWidth="17680" windowHeight="19440" activeTab="2" xr2:uid="{25829142-FE91-0A44-A382-25CA1666B681}"/>
   </bookViews>
   <sheets>
     <sheet name="Constant Samples" sheetId="1" r:id="rId1"/>
     <sheet name="Formula Samples" sheetId="2" r:id="rId2"/>
-    <sheet name="Relative Samples" sheetId="5" r:id="rId3"/>
-    <sheet name="Test Case Samples" sheetId="4" r:id="rId4"/>
+    <sheet name="RelativeF Samples" sheetId="6" r:id="rId3"/>
+    <sheet name="Relative Samples" sheetId="5" r:id="rId4"/>
+    <sheet name="Test Case Samples" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Sample Data</t>
   </si>
@@ -680,11 +681,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA248177-445A-4F41-8DB3-B508896FF9D2}">
+  <dimension ref="A2:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>E2-F2</f>
+        <v>3003</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2">
+        <v>2002</v>
+      </c>
+      <c r="E2">
+        <v>4004</v>
+      </c>
+      <c r="F2">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <f>E3+F3</f>
+        <v>4005</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3">
+        <v>2002</v>
+      </c>
+      <c r="E3">
+        <v>1000</v>
+      </c>
+      <c r="F3">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>E4+F4</f>
+        <v>3005</v>
+      </c>
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <f>E5+F5</f>
+        <v>8888</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>4444</v>
+      </c>
+      <c r="F5">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1000</v>
+      </c>
+      <c r="D6">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FE26CD8-B5F9-2843-9F16-9C9C6D979FA1}">
   <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3339B06-2787-1140-B1BC-BB2077245310}">
   <dimension ref="A1:C10"/>
   <sheetViews>
